--- a/EI_models.xlsx
+++ b/EI_models.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2ebaf97e2cc17f34/Learning/Hedge Funds Investing/Investing-Book-Reviews/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="115" documentId="8_{8D635E08-F4F6-054C-A515-FDBC3C6A750B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2E97F61-60A7-2C44-B5D7-B44468B96AD6}"/>
+  <xr:revisionPtr revIDLastSave="264" documentId="8_{8D635E08-F4F6-054C-A515-FDBC3C6A750B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{82929A6A-618C-3749-9071-E88DBDE7B422}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{B1D2A5AE-3681-6B4B-9AEC-96F86D74C8E2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{B1D2A5AE-3681-6B4B-9AEC-96F86D74C8E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029" iterate="1"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="41">
   <si>
     <t>(-)</t>
   </si>
@@ -118,6 +119,68 @@
   </si>
   <si>
     <t>NM</t>
+  </si>
+  <si>
+    <t>Assumptions</t>
+  </si>
+  <si>
+    <t>Incremental fixed-capital investment rate</t>
+  </si>
+  <si>
+    <t>Incremental working-capital investment rate</t>
+  </si>
+  <si>
+    <t>Operating Profit [OP]</t>
+  </si>
+  <si>
+    <t>Cash Taxes on OP</t>
+  </si>
+  <si>
+    <t>Net Operating Profit after Tax [NOPAT]</t>
+  </si>
+  <si>
+    <t>PV of FCFs</t>
+  </si>
+  <si>
+    <t>Cumulative PV of FCFs</t>
+  </si>
+  <si>
+    <t>Shareholder Value</t>
+  </si>
+  <si>
+    <r>
+      <t>Terminal Value = NOP</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>*(1+y)/(r-y)</t>
+    </r>
+  </si>
+  <si>
+    <t>PV of Terminal Value = TV/(1+r)^5</t>
+  </si>
+  <si>
+    <t>Inflation Rate [y]</t>
+  </si>
+  <si>
+    <t>Forecast Period</t>
   </si>
 </sst>
 </file>
@@ -131,7 +194,7 @@
     <numFmt numFmtId="169" formatCode="0.0"/>
     <numFmt numFmtId="170" formatCode="&quot;Year&quot;\ 0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -186,16 +249,44 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF0432FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="subscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -258,17 +349,62 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -289,6 +425,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -301,6 +438,30 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -329,23 +490,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>158750</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>149412</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>2074582</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>112806</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB6E0B3F-F32E-5B43-9016-3D061EE3BA3E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2446DAE1-2210-104C-B882-40F632EFEC0D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -361,8 +522,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5173382" y="3044265"/>
-          <a:ext cx="6426200" cy="4483100"/>
+          <a:off x="4013200" y="2298700"/>
+          <a:ext cx="12827000" cy="3721100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -673,8 +834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C491361-A301-5247-A999-FF4A0578B3FB}">
   <dimension ref="B1:L36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScale="136" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="136" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -695,30 +856,30 @@
       <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="19">
+      <c r="H2" s="21">
         <v>0.1</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="K2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="19">
+      <c r="L2" s="21">
         <v>0.2</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="19">
+      <c r="H3" s="21">
         <v>0.15</v>
       </c>
-      <c r="K3" s="18" t="s">
+      <c r="K3" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="19">
+      <c r="L3" s="21">
         <v>0.1</v>
       </c>
     </row>
@@ -726,20 +887,20 @@
       <c r="C4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="8">
         <v>100</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="7">
         <f>$D$4*(1+H2)</f>
         <v>110.00000000000001</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="7">
         <f>$D$4*(1+L2)</f>
         <v>120</v>
       </c>
@@ -751,7 +912,7 @@
       <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="9">
         <v>85</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -760,7 +921,7 @@
       <c r="G5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H5" s="23">
         <f>$D$5+(H4-$D$4)*(1-H3)</f>
         <v>93.500000000000014</v>
       </c>
@@ -770,7 +931,7 @@
       <c r="K5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="21">
+      <c r="L5" s="23">
         <f>$D$5+(L4-$D$4)*(1-L3)</f>
         <v>103</v>
       </c>
@@ -799,24 +960,24 @@
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="10">
         <f>D6/D4</f>
         <v>0.15</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="10">
         <f>H6/H4</f>
         <v>0.15</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="13">
         <v>0.15</v>
       </c>
     </row>
@@ -853,24 +1014,24 @@
       </c>
     </row>
     <row r="9" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="14">
         <f>D6-D8</f>
         <v>12</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="14">
         <f>H6-H8</f>
         <v>13.2</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="K9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="L9" s="13">
+      <c r="L9" s="14">
         <f>L6-L8</f>
         <v>13.6</v>
       </c>
@@ -880,31 +1041,31 @@
       <c r="C11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="15">
         <v>0.08</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="15">
         <v>0.08</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L11" s="14">
+      <c r="L11" s="15">
         <v>0.08</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="D12" s="14"/>
+      <c r="D12" s="15"/>
       <c r="F12" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="7">
         <f>H2*$D$13</f>
         <v>15</v>
       </c>
@@ -914,52 +1075,52 @@
       <c r="K12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12" s="7">
         <f>L2*$D$13</f>
         <v>30</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="17">
         <f>D9/D11</f>
         <v>150</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="16">
+      <c r="H13" s="17">
         <f>H9/H11-H12</f>
         <v>150</v>
       </c>
-      <c r="K13" s="15" t="s">
+      <c r="K13" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L13" s="16">
+      <c r="L13" s="17">
         <f>L9/L11-L12</f>
         <v>140</v>
       </c>
     </row>
     <row r="14" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G14" s="18" t="s">
+      <c r="G14" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="22">
+      <c r="H14" s="24">
         <f>H13-$D$13</f>
         <v>0</v>
       </c>
-      <c r="K14" s="18" t="s">
+      <c r="K14" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="L14" s="22">
+      <c r="L14" s="24">
         <f>L13-$D$13</f>
         <v>-10</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="D15" s="8"/>
+      <c r="D15" s="9"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C16" s="4" t="s">
@@ -967,32 +1128,32 @@
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D17" s="24">
-        <v>0</v>
-      </c>
-      <c r="E17" s="24">
+      <c r="D17" s="26">
+        <v>0</v>
+      </c>
+      <c r="E17" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D18" s="21">
         <v>0.15</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="21">
         <v>0.15</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="19">
+      <c r="D19" s="21">
         <v>0.2</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E19" s="21">
         <v>0.25</v>
       </c>
     </row>
@@ -1000,22 +1161,22 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="8">
         <v>100</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="7">
         <f>$D$20*(1+E21)</f>
         <v>110.00000000000001</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="29" t="s">
+      <c r="D21" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="19">
+      <c r="E21" s="21">
         <v>0.1</v>
       </c>
     </row>
@@ -1026,10 +1187,10 @@
       <c r="C22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="23">
+      <c r="D22" s="25">
         <v>85</v>
       </c>
-      <c r="E22" s="25">
+      <c r="E22" s="27">
         <f>$D$22+(E20-$D$4)*(1-D18)</f>
         <v>93.500000000000014</v>
       </c>
@@ -1038,24 +1199,24 @@
       <c r="C23" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="26">
+      <c r="D23" s="28">
         <f>D20-D22</f>
         <v>15</v>
       </c>
-      <c r="E23" s="26">
+      <c r="E23" s="28">
         <f>E20-E22</f>
         <v>16.5</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="27">
+      <c r="D24" s="29">
         <f>D23/D20</f>
         <v>0.15</v>
       </c>
-      <c r="E24" s="27">
+      <c r="E24" s="29">
         <f>E23/E20</f>
         <v>0.15</v>
       </c>
@@ -1067,11 +1228,11 @@
       <c r="C25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="20">
+      <c r="D25" s="22">
         <f>D23*D19</f>
         <v>3</v>
       </c>
-      <c r="E25" s="28">
+      <c r="E25" s="30">
         <f>E23*E19</f>
         <v>4.125</v>
       </c>
@@ -1080,11 +1241,11 @@
       <c r="C26" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="11">
         <f>D23-D25</f>
         <v>12</v>
       </c>
-      <c r="E26" s="10">
+      <c r="E26" s="11">
         <f>E23-E25</f>
         <v>12.375</v>
       </c>
@@ -1096,10 +1257,10 @@
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="23">
-        <v>0</v>
-      </c>
-      <c r="E27" s="23">
+      <c r="D27" s="25">
+        <v>0</v>
+      </c>
+      <c r="E27" s="25">
         <v>1.5</v>
       </c>
     </row>
@@ -1110,10 +1271,10 @@
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="23">
-        <v>0</v>
-      </c>
-      <c r="E28" s="23">
+      <c r="D28" s="25">
+        <v>0</v>
+      </c>
+      <c r="E28" s="25">
         <v>1</v>
       </c>
     </row>
@@ -1121,24 +1282,24 @@
       <c r="C29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="11">
         <f>D26-D27-D28</f>
         <v>12</v>
       </c>
-      <c r="E29" s="10">
+      <c r="E29" s="11">
         <f>E26-E27-E28</f>
         <v>9.875</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="27">
+      <c r="D30" s="29">
         <f>D29/D20</f>
         <v>0.12</v>
       </c>
-      <c r="E30" s="27">
+      <c r="E30" s="29">
         <f>E29/E20</f>
         <v>8.9772727272727268E-2</v>
       </c>
@@ -1147,7 +1308,7 @@
       <c r="C33" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D33" s="14">
+      <c r="D33" s="15">
         <v>0.08</v>
       </c>
     </row>
@@ -1158,31 +1319,481 @@
       <c r="C34" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="7">
         <f>E21*$D$13</f>
         <v>15</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C35" s="15" t="s">
+      <c r="C35" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D35" s="17">
         <f>D26/D33-D34</f>
         <v>135</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C36" s="18" t="s">
+      <c r="C36" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D36" s="22">
+      <c r="D36" s="24">
         <f>D35-$D$13</f>
         <v>-15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D7EEF4D-E518-0A48-A734-05C7FC987D83}">
+  <dimension ref="B2:L19"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="3.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="10" width="10.83203125" style="1"/>
+    <col min="11" max="11" width="37.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="D3" s="37">
+        <v>0</v>
+      </c>
+      <c r="E3" s="26">
+        <f>D3+1</f>
+        <v>1</v>
+      </c>
+      <c r="F3" s="26">
+        <f t="shared" ref="F3:I3" si="0">E3+1</f>
+        <v>2</v>
+      </c>
+      <c r="G3" s="26">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H3" s="26">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I3" s="26">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K3" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="35"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="38">
+        <v>100</v>
+      </c>
+      <c r="E4" s="7">
+        <f>D4*(1+$L$4)</f>
+        <v>110.00000000000001</v>
+      </c>
+      <c r="F4" s="7">
+        <f>E4*(1+$L$4)</f>
+        <v>121.00000000000003</v>
+      </c>
+      <c r="G4" s="7">
+        <f>F4*(1+$L$4)</f>
+        <v>133.10000000000005</v>
+      </c>
+      <c r="H4" s="7">
+        <f>G4*(1+$L$4)</f>
+        <v>146.41000000000008</v>
+      </c>
+      <c r="I4" s="7">
+        <f>H4*(1+$L$4)</f>
+        <v>161.0510000000001</v>
+      </c>
+      <c r="K4" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="32">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="39">
+        <v>85</v>
+      </c>
+      <c r="E5" s="27">
+        <f>$D$5+(E4-$D$4)*(1-$L$5)</f>
+        <v>93.500000000000014</v>
+      </c>
+      <c r="F5" s="27">
+        <f>$D$5+(F4-$D$4)*(1-$L$5)</f>
+        <v>102.85000000000002</v>
+      </c>
+      <c r="G5" s="27">
+        <f>$D$5+(G4-$D$4)*(1-$L$5)</f>
+        <v>113.13500000000005</v>
+      </c>
+      <c r="H5" s="27">
+        <f>$D$5+(H4-$D$4)*(1-$L$5)</f>
+        <v>124.44850000000007</v>
+      </c>
+      <c r="I5" s="27">
+        <f>$D$5+(I4-$D$4)*(1-$L$5)</f>
+        <v>136.89335000000008</v>
+      </c>
+      <c r="K5" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="20">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="40">
+        <f>D4-D5</f>
+        <v>15</v>
+      </c>
+      <c r="E6" s="36">
+        <f>E4-E5</f>
+        <v>16.5</v>
+      </c>
+      <c r="F6" s="36">
+        <f t="shared" ref="F6:I6" si="1">F4-F5</f>
+        <v>18.150000000000006</v>
+      </c>
+      <c r="G6" s="36">
+        <f t="shared" si="1"/>
+        <v>19.965000000000003</v>
+      </c>
+      <c r="H6" s="36">
+        <f t="shared" si="1"/>
+        <v>21.961500000000015</v>
+      </c>
+      <c r="I6" s="36">
+        <f t="shared" si="1"/>
+        <v>24.157650000000018</v>
+      </c>
+      <c r="K6" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="L6" s="33">
+        <f>D6/D4</f>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="41">
+        <f>D6*$L$7</f>
+        <v>3.75</v>
+      </c>
+      <c r="E7" s="22">
+        <f>E6*$L$7</f>
+        <v>4.125</v>
+      </c>
+      <c r="F7" s="22">
+        <f>F6*$L$7</f>
+        <v>4.5375000000000014</v>
+      </c>
+      <c r="G7" s="22">
+        <f>G6*$L$7</f>
+        <v>4.9912500000000009</v>
+      </c>
+      <c r="H7" s="22">
+        <f>H6*$L$7</f>
+        <v>5.4903750000000038</v>
+      </c>
+      <c r="I7" s="22">
+        <f>I6*$L$7</f>
+        <v>6.0394125000000045</v>
+      </c>
+      <c r="K7" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="20">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="42">
+        <f>D6-D7</f>
+        <v>11.25</v>
+      </c>
+      <c r="E8" s="11">
+        <f>E6-E7</f>
+        <v>12.375</v>
+      </c>
+      <c r="F8" s="11">
+        <f t="shared" ref="F8:I8" si="2">F6-F7</f>
+        <v>13.612500000000004</v>
+      </c>
+      <c r="G8" s="11">
+        <f t="shared" si="2"/>
+        <v>14.973750000000003</v>
+      </c>
+      <c r="H8" s="11">
+        <f t="shared" si="2"/>
+        <v>16.471125000000011</v>
+      </c>
+      <c r="I8" s="11">
+        <f t="shared" si="2"/>
+        <v>18.118237500000014</v>
+      </c>
+      <c r="K8" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="20">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="39">
+        <v>0</v>
+      </c>
+      <c r="E9" s="25">
+        <v>1.5</v>
+      </c>
+      <c r="F9" s="22">
+        <f>E9*(1+$L$8)</f>
+        <v>1.7249999999999999</v>
+      </c>
+      <c r="G9" s="22">
+        <f>F9*(1+$L$8)</f>
+        <v>1.9837499999999997</v>
+      </c>
+      <c r="H9" s="22">
+        <f>G9*(1+$L$8)</f>
+        <v>2.2813124999999994</v>
+      </c>
+      <c r="I9" s="22">
+        <f>H9*(1+$L$8)</f>
+        <v>2.6235093749999989</v>
+      </c>
+      <c r="K9" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="20">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="39">
+        <v>0</v>
+      </c>
+      <c r="E10" s="25">
+        <v>1</v>
+      </c>
+      <c r="F10" s="22">
+        <f>E10*(1+$L$9)</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G10" s="22">
+        <f>F10*(1+$L$9)</f>
+        <v>1.2100000000000002</v>
+      </c>
+      <c r="H10" s="22">
+        <f>G10*(1+$L$9)</f>
+        <v>1.3310000000000004</v>
+      </c>
+      <c r="I10" s="22">
+        <f>H10*(1+$L$9)</f>
+        <v>1.4641000000000006</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10" s="20">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="42"/>
+      <c r="E11" s="11">
+        <f>E8-E9-E10</f>
+        <v>9.875</v>
+      </c>
+      <c r="F11" s="11">
+        <f t="shared" ref="F11:I11" si="3">F8-F9-F10</f>
+        <v>10.787500000000005</v>
+      </c>
+      <c r="G11" s="11">
+        <f t="shared" si="3"/>
+        <v>11.780000000000001</v>
+      </c>
+      <c r="H11" s="11">
+        <f t="shared" si="3"/>
+        <v>12.858812500000013</v>
+      </c>
+      <c r="I11" s="11">
+        <f t="shared" si="3"/>
+        <v>14.030628125000014</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L11" s="20">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="22">
+        <f>E11/(1+$L$10)^(E3-$D$3)</f>
+        <v>9.1435185185185173</v>
+      </c>
+      <c r="F12" s="22">
+        <f>F11/(1+$L$10)^(F3-$D$3)</f>
+        <v>9.2485425240054902</v>
+      </c>
+      <c r="G12" s="22">
+        <f>G11/(1+$L$10)^(G3-$D$3)</f>
+        <v>9.3513437992175987</v>
+      </c>
+      <c r="H12" s="22">
+        <f>H11/(1+$L$10)^(H3-$D$3)</f>
+        <v>9.4516110590122029</v>
+      </c>
+      <c r="I12" s="22">
+        <f>I11/(1+$L$10)^(I3-$D$3)</f>
+        <v>9.5490097457042005</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="22">
+        <f>E12</f>
+        <v>9.1435185185185173</v>
+      </c>
+      <c r="F13" s="22">
+        <f>E13+F12</f>
+        <v>18.392061042524006</v>
+      </c>
+      <c r="G13" s="22">
+        <f t="shared" ref="G13:I13" si="4">F13+G12</f>
+        <v>27.743404841741604</v>
+      </c>
+      <c r="H13" s="22">
+        <f t="shared" si="4"/>
+        <v>37.195015900753809</v>
+      </c>
+      <c r="I13" s="22">
+        <f t="shared" si="4"/>
+        <v>46.744025646458013</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="I14" s="1">
+        <v>14.46</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="C15" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="44">
+        <f>(I8*(1+$L$11)/(L10-L11))</f>
+        <v>308.01003750000024</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="22">
+        <f>(I8*(1+$L$11)/(L10-L11))/(1+L10)^(I3-D3)</f>
+        <v>209.62645604023632</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C18" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="46">
+        <f>I16+I13</f>
+        <v>256.37048168669435</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C19" s="19"/>
+      <c r="D19" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="E2:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="D7" formula="1"/>
+  </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/EI_models.xlsx
+++ b/EI_models.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2ebaf97e2cc17f34/Learning/Hedge Funds Investing/Investing-Book-Reviews/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="264" documentId="8_{8D635E08-F4F6-054C-A515-FDBC3C6A750B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{82929A6A-618C-3749-9071-E88DBDE7B422}"/>
+  <xr:revisionPtr revIDLastSave="295" documentId="8_{8D635E08-F4F6-054C-A515-FDBC3C6A750B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA4EFFA6-3CF7-C941-B06F-23A3BF87710B}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{B1D2A5AE-3681-6B4B-9AEC-96F86D74C8E2}"/>
   </bookViews>
@@ -488,25 +488,1520 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3516155" cy="493661"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="TextBox 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24C35665-BAD0-194E-991D-1BE1AD386DBC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7588250" y="4324350"/>
+              <a:ext cx="3516155" cy="493661"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <m:rPr>
+                        <m:sty m:val="p"/>
+                      </m:rPr>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>Present</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <m:rPr>
+                        <m:sty m:val="p"/>
+                      </m:rPr>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>Value</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <m:rPr>
+                        <m:sty m:val="p"/>
+                      </m:rPr>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>of</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <m:rPr>
+                        <m:sty m:val="p"/>
+                      </m:rPr>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>a</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <m:rPr>
+                        <m:sty m:val="p"/>
+                      </m:rPr>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>perpetuity</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>Annual</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>Cash</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>Flow</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>Rate</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>of</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>return</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100" b="0" i="0"/>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" sz="1100" i="0"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="TextBox 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24C35665-BAD0-194E-991D-1BE1AD386DBC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7588250" y="4324350"/>
+              <a:ext cx="3516155" cy="493661"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>Present Value of a perpetuity=(Annual Cash Flow)/(Rate of return)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100" b="0" i="0"/>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" sz="1100" i="0"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>351513</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>75908</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2807692" cy="391218"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="TextBox 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1DB5CF8-DE64-974C-B621-42227C6E9AD3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7818237" y="4801914"/>
+              <a:ext cx="2807692" cy="391218"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <m:rPr>
+                        <m:sty m:val="p"/>
+                      </m:rPr>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>Perpetuity</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <m:rPr>
+                        <m:sty m:val="p"/>
+                      </m:rPr>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>of</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <m:rPr>
+                        <m:sty m:val="p"/>
+                      </m:rPr>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>Terminal</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <m:rPr>
+                        <m:sty m:val="p"/>
+                      </m:rPr>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>Value</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>NOPAT</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>Cost</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>of</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>Capital</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100" b="0" i="0"/>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" sz="1100" i="0"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="TextBox 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1DB5CF8-DE64-974C-B621-42227C6E9AD3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7818237" y="4801914"/>
+              <a:ext cx="2807692" cy="391218"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>Perpetuity of Terminal Value=NOPAT/(Cost of Capital)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100" b="0" i="0"/>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" sz="1100" i="0"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>349615</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>101892</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3548536" cy="390781"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="TextBox 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C15CDD6-56E1-7246-9D5D-7701692A25D2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7816339" y="5236633"/>
+              <a:ext cx="3548536" cy="390781"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <m:rPr>
+                        <m:sty m:val="p"/>
+                      </m:rPr>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>Perpetuity</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <m:rPr>
+                        <m:sty m:val="p"/>
+                      </m:rPr>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>with</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <m:rPr>
+                        <m:sty m:val="p"/>
+                      </m:rPr>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>Inflation</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>NOPAT</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t> ∗(1+</m:t>
+                        </m:r>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>inflation</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>rate</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>)</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>Cost</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>of</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>Capital</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t> −</m:t>
+                        </m:r>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>inflation</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>rate</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100" b="0" i="0"/>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" sz="1100" i="0"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="TextBox 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C15CDD6-56E1-7246-9D5D-7701692A25D2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7816339" y="5236633"/>
+              <a:ext cx="3548536" cy="390781"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>Perpetuity with Inflation=(NOPAT ∗(1+inflation rate))/(Cost of Capital −inflation rate)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100" b="0" i="0"/>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" sz="1100" i="0"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>333265</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>105831</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4367606" cy="383191"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="TextBox 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{146333A8-AB85-0443-B1D9-2DC2A515C13D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7799989" y="5649308"/>
+              <a:ext cx="4367606" cy="383191"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <m:rPr>
+                        <m:sty m:val="p"/>
+                      </m:rPr>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>Perpetuity</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <m:rPr>
+                        <m:sty m:val="p"/>
+                      </m:rPr>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>with</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <m:rPr>
+                        <m:sty m:val="p"/>
+                      </m:rPr>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>partial</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <m:rPr>
+                        <m:sty m:val="p"/>
+                      </m:rPr>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>Inflation</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>NOPAT</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t> ∗(1+</m:t>
+                        </m:r>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>p</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t> ∗ </m:t>
+                        </m:r>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>inflation</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>rate</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>)</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>Cost</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>of</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>Capital</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t> −[</m:t>
+                        </m:r>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>p</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t> ∗ </m:t>
+                        </m:r>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>inflation</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>rate</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>]</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100" b="0" i="0"/>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" sz="1100" i="0"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="TextBox 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{146333A8-AB85-0443-B1D9-2DC2A515C13D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7799989" y="5649308"/>
+              <a:ext cx="4367606" cy="383191"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>Perpetuity with partial Inflation=(NOPAT ∗(1+p ∗ inflation rate))/(Cost of Capital −[p ∗ inflation rate])</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100" b="0" i="0"/>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" sz="1100" i="0"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>220134</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>104957</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3626634" cy="525080"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8" name="TextBox 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{536B48BE-F721-8C41-BF77-7394630360EF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7686858" y="6057170"/>
+              <a:ext cx="3626634" cy="525080"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <m:rPr>
+                        <m:sty m:val="p"/>
+                      </m:rPr>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>Perpetuity</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <m:rPr>
+                        <m:sty m:val="p"/>
+                      </m:rPr>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>with</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <m:rPr>
+                        <m:sty m:val="p"/>
+                      </m:rPr>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>decline</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>NOPAT</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t> ∗(1 − </m:t>
+                        </m:r>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>decline</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>rate</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>)</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>Cost</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>of</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>Capital</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>+</m:t>
+                        </m:r>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>decline</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>rate</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>]</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100" b="0" i="0"/>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" sz="1100" i="0"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8" name="TextBox 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{536B48BE-F721-8C41-BF77-7394630360EF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7686858" y="6057170"/>
+              <a:ext cx="3626634" cy="525080"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>Perpetuity with decline=(NOPAT ∗(1 − decline rate))/(Cost of Capital+decline rate])</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100" b="0" i="0"/>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" sz="1100" i="0"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>607129</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>190798</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>337951</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>149895</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2446DAE1-2210-104C-B882-40F632EFEC0D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91CD6742-6966-3143-BB7D-327170801397}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -522,8 +2017,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4013200" y="2298700"/>
-          <a:ext cx="12827000" cy="3721100"/>
+          <a:off x="9711777" y="7512676"/>
+          <a:ext cx="4262277" cy="2189050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1351,8 +2846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D7EEF4D-E518-0A48-A734-05C7FC987D83}">
   <dimension ref="B2:L19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E25" zoomScale="213" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1792,7 +3287,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="D7" formula="1"/>
+    <ignoredError sqref="D7:I7" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/EI_models.xlsx
+++ b/EI_models.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2ebaf97e2cc17f34/Learning/Hedge Funds Investing/Investing-Book-Reviews/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="295" documentId="8_{8D635E08-F4F6-054C-A515-FDBC3C6A750B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA4EFFA6-3CF7-C941-B06F-23A3BF87710B}"/>
+  <xr:revisionPtr revIDLastSave="296" documentId="8_{8D635E08-F4F6-054C-A515-FDBC3C6A750B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1272EAD2-7AAE-2645-87DC-15CCBE09A69C}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{B1D2A5AE-3681-6B4B-9AEC-96F86D74C8E2}"/>
   </bookViews>
@@ -1985,16 +1985,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>607129</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>190798</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>148021</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>101361</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>337951</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>149895</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>2764664</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>60458</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2017,7 +2017,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9711777" y="7512676"/>
+          <a:off x="7607035" y="6612347"/>
           <a:ext cx="4262277" cy="2189050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2846,7 +2846,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D7EEF4D-E518-0A48-A734-05C7FC987D83}">
   <dimension ref="B2:L19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E25" zoomScale="213" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E28" zoomScale="213" workbookViewId="0">
       <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
